--- a/Persistence/Database/test-data/Senders.xlsx
+++ b/Persistence/Database/test-data/Senders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieva\Desktop\PSK\komandinis\shipping-service\Persistence\Database\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78E6DA0-DA1D-4945-BAA6-1E65A95724D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F339200E-F3B8-4A9E-9EB6-D3C3168990F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{54AE04AE-C949-4CC5-AC84-C35C16DF375A}"/>
   </bookViews>
@@ -465,13 +465,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
